--- a/html/resources/ioaConditions/train1P2Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block5Test.xlsx
@@ -34,25 +34,25 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
   </si>
   <si>
     <t>train1P2</t>
   </si>
   <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P2Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block5Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
+    <t>trainingaudio/10_tokiti2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.mp3</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>

--- a/html/resources/ioaConditions/train1P2Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block5Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.mp3</t>
+    <t>trainingaudio/10_tokiti2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.ogg</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>

--- a/html/resources/ioaConditions/train1P2Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block5Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.ogg</t>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
   </si>
   <si>
     <t>pngimages/10_backpack.png</t>
